--- a/Word-Printer/samples/Level4/四层项目/XXX项目/10 ZRXX-20000-RM-P-01 发布管理程序记录/ZRXX-20000-RM-R-03 发布管理统计报表-XXX项目.xlsx
+++ b/Word-Printer/samples/Level4/四层项目/XXX项目/10 ZRXX-20000-RM-P-01 发布管理程序记录/ZRXX-20000-RM-R-03 发布管理统计报表-XXX项目.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\WordPrinter\Word-Printer\samples\Level4\四层项目\XXX项目\10 ZRXX-20000-RM-P-01 发布管理程序记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19100" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="发布管理统计报表" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">发布管理统计报表!$A$1:$C$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">发布管理统计报表!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -112,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -256,7 +261,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFBD0000"/>
       <name val="幼圆"/>
       <family val="3"/>
       <charset val="134"/>
@@ -609,32 +614,32 @@
     <xf numFmtId="10" fontId="16" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -659,9 +664,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBD0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -710,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -745,7 +758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -956,44 +969,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" bestFit="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1003,8 +1016,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1012,8 +1025,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1022,8 +1035,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1033,8 +1046,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1043,8 +1056,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1053,8 +1066,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1064,8 +1077,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1074,8 +1087,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1084,8 +1097,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1095,8 +1108,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1118,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1115,8 +1128,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1126,8 +1139,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -1136,8 +1149,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1146,8 +1159,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1157,8 +1170,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1167,8 +1180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1177,8 +1190,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1188,8 +1201,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1198,8 +1211,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
@@ -1208,8 +1221,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1219,8 +1232,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1229,8 +1242,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
@@ -1239,8 +1252,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1250,8 +1263,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
@@ -1260,8 +1273,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
@@ -1270,8 +1283,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1281,8 +1294,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
@@ -1291,8 +1304,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
@@ -1301,8 +1314,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1312,8 +1325,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
       <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1335,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
         <v>5</v>
       </c>
@@ -1334,12 +1347,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A13:A15"/>
@@ -1348,6 +1355,12 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.35433070866141736" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
